--- a/Excel_Tabellen/Carsharing_Fussgaenger.xlsx
+++ b/Excel_Tabellen/Carsharing_Fussgaenger.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Database">Anzahl_Carsharing!$A$1:$C$251</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1601,9 +1601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1675,8 +1673,8 @@
         <v>19</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="0">E3/MAX($E$2:$E$251)</f>
-        <v>0.95</v>
+        <f t="shared" ref="F3:F66" si="0">E3/MAX($E$2:$E$251)*100</f>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1698,7 +1696,7 @@
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>55.000000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1720,7 +1718,7 @@
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1742,7 +1740,7 @@
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1764,7 +1762,7 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1786,7 +1784,7 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1808,7 +1806,7 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.35</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1830,7 +1828,7 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1852,7 +1850,7 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1874,7 +1872,7 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1896,7 +1894,7 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>55.000000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1918,7 +1916,7 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,7 +1938,7 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1984,7 +1982,7 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2028,7 +2026,7 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2050,7 +2048,7 @@
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2072,7 +2070,7 @@
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2270,7 +2268,7 @@
       </c>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2292,7 +2290,7 @@
       </c>
       <c r="F31" s="2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2314,7 +2312,7 @@
       </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2336,7 +2334,7 @@
       </c>
       <c r="F33" s="2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2358,7 +2356,7 @@
       </c>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2380,7 +2378,7 @@
       </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2402,7 +2400,7 @@
       </c>
       <c r="F36" s="2">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2424,7 +2422,7 @@
       </c>
       <c r="F37" s="2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2446,7 +2444,7 @@
       </c>
       <c r="F38" s="2">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2468,7 +2466,7 @@
       </c>
       <c r="F39" s="2">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2490,7 +2488,7 @@
       </c>
       <c r="F40" s="2">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2512,7 +2510,7 @@
       </c>
       <c r="F41" s="2">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2534,7 +2532,7 @@
       </c>
       <c r="F42" s="2">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2556,7 +2554,7 @@
       </c>
       <c r="F43" s="2">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2578,7 +2576,7 @@
       </c>
       <c r="F44" s="2">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2600,7 +2598,7 @@
       </c>
       <c r="F45" s="2">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2622,7 +2620,7 @@
       </c>
       <c r="F46" s="2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2644,7 +2642,7 @@
       </c>
       <c r="F47" s="2">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>55.000000000000007</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2666,7 +2664,7 @@
       </c>
       <c r="F48" s="2">
         <f t="shared" si="0"/>
-        <v>0.45</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2688,7 +2686,7 @@
       </c>
       <c r="F49" s="2">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2710,7 +2708,7 @@
       </c>
       <c r="F50" s="2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2732,7 +2730,7 @@
       </c>
       <c r="F51" s="2">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2754,7 +2752,7 @@
       </c>
       <c r="F52" s="2">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2776,7 +2774,7 @@
       </c>
       <c r="F53" s="2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2798,7 +2796,7 @@
       </c>
       <c r="F54" s="2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2820,7 +2818,7 @@
       </c>
       <c r="F55" s="2">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2842,7 +2840,7 @@
       </c>
       <c r="F56" s="2">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2864,7 +2862,7 @@
       </c>
       <c r="F57" s="2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2886,7 +2884,7 @@
       </c>
       <c r="F58" s="2">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2908,7 +2906,7 @@
       </c>
       <c r="F59" s="2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2930,7 +2928,7 @@
       </c>
       <c r="F60" s="2">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2952,7 +2950,7 @@
       </c>
       <c r="F61" s="2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2974,7 +2972,7 @@
       </c>
       <c r="F62" s="2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3083,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ref="F67:F130" si="2">E67/MAX($E$2:$E$251)</f>
+        <f t="shared" ref="F67:F130" si="2">E67/MAX($E$2:$E$251)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -3128,7 +3126,7 @@
       </c>
       <c r="F69" s="2">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3282,7 +3280,7 @@
       </c>
       <c r="F76" s="2">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3304,7 +3302,7 @@
       </c>
       <c r="F77" s="2">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3502,7 +3500,7 @@
       </c>
       <c r="F86" s="2">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3524,7 +3522,7 @@
       </c>
       <c r="F87" s="2">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3546,7 +3544,7 @@
       </c>
       <c r="F88" s="2">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3612,7 +3610,7 @@
       </c>
       <c r="F91" s="2">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3634,7 +3632,7 @@
       </c>
       <c r="F92" s="2">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3656,7 +3654,7 @@
       </c>
       <c r="F93" s="2">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3678,7 +3676,7 @@
       </c>
       <c r="F94" s="2">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3700,7 +3698,7 @@
       </c>
       <c r="F95" s="2">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3722,7 +3720,7 @@
       </c>
       <c r="F96" s="2">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3744,7 +3742,7 @@
       </c>
       <c r="F97" s="2">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3766,7 +3764,7 @@
       </c>
       <c r="F98" s="2">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -4140,7 +4138,7 @@
       </c>
       <c r="F115" s="2">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -4162,7 +4160,7 @@
       </c>
       <c r="F116" s="2">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -4184,7 +4182,7 @@
       </c>
       <c r="F117" s="2">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4206,7 +4204,7 @@
       </c>
       <c r="F118" s="2">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -4360,7 +4358,7 @@
       </c>
       <c r="F125" s="2">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4382,7 +4380,7 @@
       </c>
       <c r="F126" s="2">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4404,7 +4402,7 @@
       </c>
       <c r="F127" s="2">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4426,7 +4424,7 @@
       </c>
       <c r="F128" s="2">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4448,7 +4446,7 @@
       </c>
       <c r="F129" s="2">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4470,7 +4468,7 @@
       </c>
       <c r="F130" s="2">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4491,8 +4489,8 @@
         <v>1</v>
       </c>
       <c r="F131" s="2">
-        <f t="shared" ref="F131:F194" si="4">E131/MAX($E$2:$E$251)</f>
-        <v>0.05</v>
+        <f t="shared" ref="F131:F194" si="4">E131/MAX($E$2:$E$251)*100</f>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4514,7 +4512,7 @@
       </c>
       <c r="F132" s="2">
         <f t="shared" si="4"/>
-        <v>0.35</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4536,7 +4534,7 @@
       </c>
       <c r="F133" s="2">
         <f t="shared" si="4"/>
-        <v>0.35</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4558,7 +4556,7 @@
       </c>
       <c r="F134" s="2">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4580,7 +4578,7 @@
       </c>
       <c r="F135" s="2">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4602,7 +4600,7 @@
       </c>
       <c r="F136" s="2">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4624,7 +4622,7 @@
       </c>
       <c r="F137" s="2">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4646,7 +4644,7 @@
       </c>
       <c r="F138" s="2">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4668,7 +4666,7 @@
       </c>
       <c r="F139" s="2">
         <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4690,7 +4688,7 @@
       </c>
       <c r="F140" s="2">
         <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4712,7 +4710,7 @@
       </c>
       <c r="F141" s="2">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4756,7 +4754,7 @@
       </c>
       <c r="F143" s="2">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4866,7 +4864,7 @@
       </c>
       <c r="F148" s="2">
         <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4888,7 +4886,7 @@
       </c>
       <c r="F149" s="2">
         <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4910,7 +4908,7 @@
       </c>
       <c r="F150" s="2">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -5020,7 +5018,7 @@
       </c>
       <c r="F155" s="2">
         <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -5042,7 +5040,7 @@
       </c>
       <c r="F156" s="2">
         <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -5152,7 +5150,7 @@
       </c>
       <c r="F161" s="2">
         <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -5218,7 +5216,7 @@
       </c>
       <c r="F164" s="2">
         <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -5262,7 +5260,7 @@
       </c>
       <c r="F166" s="2">
         <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -5284,7 +5282,7 @@
       </c>
       <c r="F167" s="2">
         <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -5306,7 +5304,7 @@
       </c>
       <c r="F168" s="2">
         <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -5328,7 +5326,7 @@
       </c>
       <c r="F169" s="2">
         <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -5350,7 +5348,7 @@
       </c>
       <c r="F170" s="2">
         <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -5504,7 +5502,7 @@
       </c>
       <c r="F177" s="2">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5812,7 +5810,7 @@
       </c>
       <c r="F191" s="2">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -5834,7 +5832,7 @@
       </c>
       <c r="F192" s="2">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5856,7 +5854,7 @@
       </c>
       <c r="F193" s="2">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5899,8 +5897,8 @@
         <v>3</v>
       </c>
       <c r="F195" s="2">
-        <f t="shared" ref="F195:F251" si="6">E195/MAX($E$2:$E$251)</f>
-        <v>0.15</v>
+        <f t="shared" ref="F195:F250" si="6">E195/MAX($E$2:$E$251)*100</f>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5922,7 +5920,7 @@
       </c>
       <c r="F196" s="2">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -6208,7 +6206,7 @@
       </c>
       <c r="F209" s="2">
         <f t="shared" si="6"/>
-        <v>0.15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6230,7 +6228,7 @@
       </c>
       <c r="F210" s="2">
         <f t="shared" si="6"/>
-        <v>0.15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6252,7 +6250,7 @@
       </c>
       <c r="F211" s="2">
         <f t="shared" si="6"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6714,7 +6712,7 @@
       </c>
       <c r="F232" s="2">
         <f t="shared" si="6"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -7131,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="F251" s="2">
-        <f t="shared" si="6"/>
+        <f>E251/MAX($E$2:$E$251)*100</f>
         <v>0</v>
       </c>
     </row>
